--- a/biology/Origine et évolution du vivant/Famennien/Famennien.xlsx
+++ b/biology/Origine et évolution du vivant/Famennien/Famennien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Famennien est, dans l'histoire de la Terre, l'étage chronostratigraphique le plus haut du Dévonien supérieur. Cet étage a une durée géochronologique s'étendant de - 372,2 millions à - 358,9 millions d'années. Le Famennien est précédé du Frasnien et est suivi du Tournaisien, l'étage le plus bas du Carbonifère.
 </t>
@@ -511,10 +523,12 @@
           <t>Nom et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Famennien est dénommé d'après la région de Famenne en Belgique orientale. 
-Étage et nom furent proposés par André Hubert Dumont en 1855[1] et furent ensuite introduits dans la littérature scientifique. 
+Étage et nom furent proposés par André Hubert Dumont en 1855 et furent ensuite introduits dans la littérature scientifique. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Définition et GSSP</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La base du Famennien se trouve directement sur l'horizon de l'événement Kellwasser, un épisode important d'anoxie (manque d'oxygène) bien attesté en divers points du globe, et qui le sépare du Frasnien. Cet événement correspond à une grande extinction de nombreuses espèces vivantes au Dévonien supérieur. La fin des strates du Famennien est également la limite supérieure du Dévonien et la limite entre ce système et le Carbonifère, qui est définie par l'arrivée de l'espèce de conodontes Siphonodella sulcata.
-Le profil de référence (GSSP) se trouve dans la carrière de Coumiac, à proximité de Cessenon, dans le département de l'Hérault, dans le domaine de la Montagne Noire, en France[2].
+Le profil de référence (GSSP) se trouve dans la carrière de Coumiac, à proximité de Cessenon, dans le département de l'Hérault, dans le domaine de la Montagne Noire, en France.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Subdivisions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Famennien se subdivise en huit biozones à conodontes :
 Zone à Siphonodella praesulcata
@@ -615,9 +633,11 @@
           <t>Géochronologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dates de début et de fin du Famennien ont été estimées respectivement à 372,2 ± 1,6 Ma et 358,9 ± 0,4 Ma, soit une durée de cette subdivision de 13,3 Ma[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dates de début et de fin du Famennien ont été estimées respectivement à 372,2 ± 1,6 Ma et 358,9 ± 0,4 Ma, soit une durée de cette subdivision de 13,3 Ma,.
 </t>
         </is>
       </c>
